--- a/data/trans_bre/P2403-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2403-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2403-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2403-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,1%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,87; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 1,24</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 1,53</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,07; 133,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,57; 77,01</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,77%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 0,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; -1,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 2,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 173,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,28; -43,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,02; 63,82</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,41%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,71; 0,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; -0,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; -0,63</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,52; -15,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,06; -23,53</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,98%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,0; -0,2</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; -0,2</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 1,3</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,42; 6,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,8; 81,75</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,92%</t>
         </is>
       </c>
     </row>
@@ -967,27 +967,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-4,75; -1,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 1,97</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 537,66</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; -0,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,17%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; -0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; -1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; -0,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -19,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,23; -52,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,34; -7,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2403-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2403-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; -0,14</t>
+          <t>-2,1; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-0,32</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,89</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-82,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-70,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-33,17%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 0,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-82,96%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-70,58%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-33,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,59; -0,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-2,57; -1,24</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,61; -0,18</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-100,0; -19,38</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-81,23; -52,86</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-53,34; -7,65</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
